--- a/dataanalysis/data/predictions/1400/09291401_1403.xlsx
+++ b/dataanalysis/data/predictions/1400/09291401_1403.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="122">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-09-29</t>
   </si>
   <si>
@@ -377,12 +380,6 @@
   </si>
   <si>
     <t>否</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -740,13 +737,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH47"/>
+  <dimension ref="A1:AI47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -849,19 +846,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300014</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>7.66</v>
@@ -879,7 +879,7 @@
         <v>795754.24</v>
       </c>
       <c r="J2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K2">
         <v>17</v>
@@ -921,10 +921,25 @@
         <v>0.21</v>
       </c>
       <c r="X2" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="Y2">
+        <v>8.75</v>
+      </c>
+      <c r="Z2">
+        <v>91.98</v>
+      </c>
+      <c r="AA2">
+        <v>10.57</v>
       </c>
       <c r="AC2" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -932,22 +947,25 @@
       <c r="AG2">
         <v>5.168452739715576</v>
       </c>
-      <c r="AH2" t="s">
-        <v>121</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300115</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>10.02</v>
@@ -965,7 +983,7 @@
         <v>646728.35</v>
       </c>
       <c r="J3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K3">
         <v>8</v>
@@ -1007,10 +1025,25 @@
         <v>0.33</v>
       </c>
       <c r="X3" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="Y3">
+        <v>0.53</v>
+      </c>
+      <c r="Z3">
+        <v>42.52</v>
+      </c>
+      <c r="AA3">
+        <v>2.98</v>
       </c>
       <c r="AC3" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1018,22 +1051,25 @@
       <c r="AG3">
         <v>-6.487814903259277</v>
       </c>
-      <c r="AH3" t="s">
-        <v>121</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300207</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>2.13</v>
@@ -1051,7 +1087,7 @@
         <v>409245.7</v>
       </c>
       <c r="J4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K4">
         <v>17</v>
@@ -1093,10 +1129,25 @@
         <v>-0.23</v>
       </c>
       <c r="X4" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="Y4">
+        <v>-2.17</v>
+      </c>
+      <c r="Z4">
+        <v>35.43</v>
+      </c>
+      <c r="AA4">
+        <v>2.46</v>
       </c>
       <c r="AC4" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1104,22 +1155,25 @@
       <c r="AG4">
         <v>4.999124526977539</v>
       </c>
-      <c r="AH4" t="s">
-        <v>121</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300250</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>20</v>
@@ -1137,7 +1191,7 @@
         <v>140605.66</v>
       </c>
       <c r="J5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -1179,10 +1233,25 @@
         <v>5.24</v>
       </c>
       <c r="X5" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="Y5">
+        <v>3.03</v>
+      </c>
+      <c r="Z5">
+        <v>28.2</v>
+      </c>
+      <c r="AA5">
+        <v>6.82</v>
       </c>
       <c r="AC5" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1190,22 +1259,25 @@
       <c r="AG5">
         <v>9.984714508056641</v>
       </c>
-      <c r="AH5" t="s">
-        <v>121</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300270</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>-7.07</v>
@@ -1223,7 +1295,7 @@
         <v>35522.92</v>
       </c>
       <c r="J6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -1265,10 +1337,25 @@
         <v>-0.48</v>
       </c>
       <c r="X6" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="Y6">
+        <v>-3.08</v>
+      </c>
+      <c r="Z6">
+        <v>10.67</v>
+      </c>
+      <c r="AA6">
+        <v>4</v>
       </c>
       <c r="AC6" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1276,22 +1363,25 @@
       <c r="AG6">
         <v>3.00116229057312</v>
       </c>
-      <c r="AH6" t="s">
-        <v>121</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300274</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>5.04</v>
@@ -1309,7 +1399,7 @@
         <v>1404876.08</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K7">
         <v>19</v>
@@ -1351,10 +1441,25 @@
         <v>0.13</v>
       </c>
       <c r="X7" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="Y7">
+        <v>-1.83</v>
+      </c>
+      <c r="Z7">
+        <v>167.69</v>
+      </c>
+      <c r="AA7">
+        <v>1.36</v>
       </c>
       <c r="AC7" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1362,22 +1467,25 @@
       <c r="AG7">
         <v>3.551467418670654</v>
       </c>
-      <c r="AH7" t="s">
-        <v>121</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300432</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>5.65</v>
@@ -1395,7 +1503,7 @@
         <v>269919.21</v>
       </c>
       <c r="J8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -1437,10 +1545,25 @@
         <v>0.83</v>
       </c>
       <c r="X8" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="Y8">
+        <v>19.98</v>
+      </c>
+      <c r="Z8">
+        <v>22.22</v>
+      </c>
+      <c r="AA8">
+        <v>21.16</v>
       </c>
       <c r="AC8" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>1</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1448,22 +1571,25 @@
       <c r="AG8">
         <v>8.79998779296875</v>
       </c>
-      <c r="AH8" t="s">
-        <v>121</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300450</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>-2.2</v>
@@ -1481,7 +1607,7 @@
         <v>1080556.44</v>
       </c>
       <c r="J9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K9">
         <v>22</v>
@@ -1523,10 +1649,25 @@
         <v>-1.09</v>
       </c>
       <c r="X9" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="Y9">
+        <v>-1.46</v>
+      </c>
+      <c r="Z9">
+        <v>64.87</v>
+      </c>
+      <c r="AA9">
+        <v>1.28</v>
       </c>
       <c r="AC9" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1534,22 +1675,25 @@
       <c r="AG9">
         <v>-67.92937469482422</v>
       </c>
-      <c r="AH9" t="s">
-        <v>121</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300457</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>0.33</v>
@@ -1567,7 +1711,7 @@
         <v>207117.38</v>
       </c>
       <c r="J10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K10">
         <v>20</v>
@@ -1609,10 +1753,25 @@
         <v>-0.33</v>
       </c>
       <c r="X10" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="Y10">
+        <v>-2.63</v>
+      </c>
+      <c r="Z10">
+        <v>36.94</v>
+      </c>
+      <c r="AA10">
+        <v>1.76</v>
       </c>
       <c r="AC10" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1620,22 +1779,25 @@
       <c r="AG10">
         <v>25.91236686706543</v>
       </c>
-      <c r="AH10" t="s">
-        <v>121</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300475</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>8.710000000000001</v>
@@ -1653,7 +1815,7 @@
         <v>279425.92</v>
       </c>
       <c r="J11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K11">
         <v>17</v>
@@ -1695,10 +1857,25 @@
         <v>-0.02</v>
       </c>
       <c r="X11" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="Y11">
+        <v>8.31</v>
+      </c>
+      <c r="Z11">
+        <v>95</v>
+      </c>
+      <c r="AA11">
+        <v>12.25</v>
       </c>
       <c r="AC11" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1706,22 +1883,25 @@
       <c r="AG11">
         <v>9.082241058349609</v>
       </c>
-      <c r="AH11" t="s">
-        <v>121</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300490</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>5.02</v>
@@ -1739,7 +1919,7 @@
         <v>103900.92</v>
       </c>
       <c r="J12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1781,10 +1961,25 @@
         <v>1.25</v>
       </c>
       <c r="X12" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="Y12">
+        <v>2.99</v>
+      </c>
+      <c r="Z12">
+        <v>13.98</v>
+      </c>
+      <c r="AA12">
+        <v>5.99</v>
       </c>
       <c r="AC12" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1792,22 +1987,25 @@
       <c r="AG12">
         <v>-1.305920600891113</v>
       </c>
-      <c r="AH12" t="s">
-        <v>121</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300502</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>4.27</v>
@@ -1825,7 +2023,7 @@
         <v>1344188.11</v>
       </c>
       <c r="J13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1867,10 +2065,25 @@
         <v>0.19</v>
       </c>
       <c r="X13" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="Y13">
+        <v>-5.8</v>
+      </c>
+      <c r="Z13">
+        <v>395</v>
+      </c>
+      <c r="AA13">
+        <v>1.29</v>
       </c>
       <c r="AC13" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -1878,22 +2091,25 @@
       <c r="AG13">
         <v>-29.65105819702148</v>
       </c>
-      <c r="AH13" t="s">
-        <v>121</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300539</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>-0.32</v>
@@ -1911,7 +2127,7 @@
         <v>38066.56</v>
       </c>
       <c r="J14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14">
         <v>17</v>
@@ -1953,10 +2169,25 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="X14" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="Y14">
+        <v>-1.06</v>
+      </c>
+      <c r="Z14">
+        <v>48.49</v>
+      </c>
+      <c r="AA14">
+        <v>2.39</v>
       </c>
       <c r="AC14" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -1964,22 +2195,25 @@
       <c r="AG14">
         <v>4.914689064025879</v>
       </c>
-      <c r="AH14" t="s">
-        <v>121</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300604</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>7.35</v>
@@ -1997,7 +2231,7 @@
         <v>867865.91</v>
       </c>
       <c r="J15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K15">
         <v>24</v>
@@ -2039,10 +2273,25 @@
         <v>0.9</v>
       </c>
       <c r="X15" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="Y15">
+        <v>-4.32</v>
+      </c>
+      <c r="Z15">
+        <v>107.66</v>
+      </c>
+      <c r="AA15">
+        <v>4.9</v>
       </c>
       <c r="AC15" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2050,22 +2299,25 @@
       <c r="AG15">
         <v>2.919933319091797</v>
       </c>
-      <c r="AH15" t="s">
-        <v>121</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300650</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>5.45</v>
@@ -2083,7 +2335,7 @@
         <v>62707.65</v>
       </c>
       <c r="J16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K16">
         <v>4</v>
@@ -2125,10 +2377,25 @@
         <v>0.46</v>
       </c>
       <c r="X16" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="Y16">
+        <v>0.98</v>
+      </c>
+      <c r="Z16">
+        <v>22.5</v>
+      </c>
+      <c r="AA16">
+        <v>3.88</v>
       </c>
       <c r="AC16" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2136,22 +2403,25 @@
       <c r="AG16">
         <v>5.585580348968506</v>
       </c>
-      <c r="AH16" t="s">
-        <v>121</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300666</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>-0.8100000000000001</v>
@@ -2169,7 +2439,7 @@
         <v>306453.94</v>
       </c>
       <c r="J17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K17">
         <v>4</v>
@@ -2211,10 +2481,25 @@
         <v>-0.62</v>
       </c>
       <c r="X17" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="Y17">
+        <v>-4.86</v>
+      </c>
+      <c r="Z17">
+        <v>107.46</v>
+      </c>
+      <c r="AA17">
+        <v>3.14</v>
       </c>
       <c r="AC17" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>1</v>
@@ -2222,22 +2507,25 @@
       <c r="AG17">
         <v>27.14266777038574</v>
       </c>
-      <c r="AH17" t="s">
-        <v>121</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300792</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>3.22</v>
@@ -2255,7 +2543,7 @@
         <v>62085.92</v>
       </c>
       <c r="J18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -2297,10 +2585,25 @@
         <v>0.68</v>
       </c>
       <c r="X18" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="Y18">
+        <v>1.92</v>
+      </c>
+      <c r="Z18">
+        <v>35.54</v>
+      </c>
+      <c r="AA18">
+        <v>3.55</v>
       </c>
       <c r="AC18" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2308,22 +2611,25 @@
       <c r="AG18">
         <v>0.2053093314170837</v>
       </c>
-      <c r="AH18" t="s">
-        <v>121</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300803</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>13.11</v>
@@ -2341,7 +2647,7 @@
         <v>866838.3199999999</v>
       </c>
       <c r="J19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K19">
         <v>35</v>
@@ -2383,10 +2689,25 @@
         <v>1.21</v>
       </c>
       <c r="X19" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="Y19">
+        <v>0.19</v>
+      </c>
+      <c r="Z19">
+        <v>169.9</v>
+      </c>
+      <c r="AA19">
+        <v>-1.15</v>
       </c>
       <c r="AC19" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2394,22 +2715,25 @@
       <c r="AG19">
         <v>-7.183665752410889</v>
       </c>
-      <c r="AH19" t="s">
-        <v>121</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300827</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>8.390000000000001</v>
@@ -2427,7 +2751,7 @@
         <v>242465.13</v>
       </c>
       <c r="J20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K20">
         <v>18</v>
@@ -2469,10 +2793,25 @@
         <v>1.33</v>
       </c>
       <c r="X20" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="Y20">
+        <v>3.65</v>
+      </c>
+      <c r="Z20">
+        <v>37.94</v>
+      </c>
+      <c r="AA20">
+        <v>7.94</v>
       </c>
       <c r="AC20" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>1</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2480,22 +2819,25 @@
       <c r="AG20">
         <v>3.606935739517212</v>
       </c>
-      <c r="AH20" t="s">
-        <v>121</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300959</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>12.05</v>
@@ -2513,7 +2855,7 @@
         <v>107587.78</v>
       </c>
       <c r="J21" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K21">
         <v>10</v>
@@ -2555,10 +2897,25 @@
         <v>-1.23</v>
       </c>
       <c r="X21" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="Y21">
+        <v>15.08</v>
+      </c>
+      <c r="Z21">
+        <v>98.88</v>
+      </c>
+      <c r="AA21">
+        <v>17.38</v>
       </c>
       <c r="AC21" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>1</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2566,22 +2923,25 @@
       <c r="AG21">
         <v>-6.266570091247559</v>
       </c>
-      <c r="AH21" t="s">
-        <v>121</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300969</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>1.57</v>
@@ -2599,7 +2959,7 @@
         <v>29100.84</v>
       </c>
       <c r="J22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K22">
         <v>9</v>
@@ -2641,10 +3001,25 @@
         <v>0.35</v>
       </c>
       <c r="X22" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="Y22">
+        <v>-1.44</v>
+      </c>
+      <c r="Z22">
+        <v>131.9</v>
+      </c>
+      <c r="AA22">
+        <v>1.16</v>
       </c>
       <c r="AC22" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2652,22 +3027,25 @@
       <c r="AG22">
         <v>22.81821823120117</v>
       </c>
-      <c r="AH22" t="s">
-        <v>121</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>301013</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>6.21</v>
@@ -2685,7 +3063,7 @@
         <v>167196.52</v>
       </c>
       <c r="J23" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K23">
         <v>8</v>
@@ -2727,10 +3105,25 @@
         <v>-0.7</v>
       </c>
       <c r="X23" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="Y23">
+        <v>-5.37</v>
+      </c>
+      <c r="Z23">
+        <v>33.08</v>
+      </c>
+      <c r="AA23">
+        <v>6.92</v>
       </c>
       <c r="AC23" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2738,22 +3131,25 @@
       <c r="AG23">
         <v>8.924495697021484</v>
       </c>
-      <c r="AH23" t="s">
-        <v>121</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>301086</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>9.869999999999999</v>
@@ -2771,7 +3167,7 @@
         <v>50935.05</v>
       </c>
       <c r="J24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K24">
         <v>5</v>
@@ -2813,10 +3209,25 @@
         <v>0.05</v>
       </c>
       <c r="X24" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="Y24">
+        <v>-3.73</v>
+      </c>
+      <c r="Z24">
+        <v>86.8</v>
+      </c>
+      <c r="AA24">
+        <v>0.65</v>
       </c>
       <c r="AC24" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -2824,22 +3235,25 @@
       <c r="AG24">
         <v>2.040156841278076</v>
       </c>
-      <c r="AH24" t="s">
-        <v>121</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>301308</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>5.09</v>
@@ -2857,7 +3271,7 @@
         <v>214682.57</v>
       </c>
       <c r="J25" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K25">
         <v>7</v>
@@ -2899,10 +3313,25 @@
         <v>0.41</v>
       </c>
       <c r="X25" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="Y25">
+        <v>20</v>
+      </c>
+      <c r="Z25">
+        <v>178.03</v>
+      </c>
+      <c r="AA25">
+        <v>20.14</v>
       </c>
       <c r="AC25" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>1</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -2910,22 +3339,25 @@
       <c r="AG25">
         <v>-2.044699907302856</v>
       </c>
-      <c r="AH25" t="s">
-        <v>121</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>301326</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>-1.34</v>
@@ -2943,7 +3375,7 @@
         <v>24462.91</v>
       </c>
       <c r="J26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2984,8 +3416,23 @@
       <c r="W26">
         <v>-0.62</v>
       </c>
+      <c r="Y26">
+        <v>-2.16</v>
+      </c>
+      <c r="Z26">
+        <v>135</v>
+      </c>
+      <c r="AA26">
+        <v>6.99</v>
+      </c>
       <c r="AC26" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -2993,22 +3440,25 @@
       <c r="AG26">
         <v>3.233050107955933</v>
       </c>
-      <c r="AH26" t="s">
-        <v>121</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>301358</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>18.82</v>
@@ -3026,7 +3476,7 @@
         <v>231108.99</v>
       </c>
       <c r="J27" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -3068,10 +3518,25 @@
         <v>-1.08</v>
       </c>
       <c r="X27" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="Y27">
+        <v>12.01</v>
+      </c>
+      <c r="Z27">
+        <v>62.27</v>
+      </c>
+      <c r="AA27">
+        <v>14.93</v>
       </c>
       <c r="AC27" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="AD27">
+        <v>1</v>
+      </c>
+      <c r="AE27">
+        <v>1</v>
       </c>
       <c r="AF27">
         <v>1</v>
@@ -3079,22 +3544,25 @@
       <c r="AG27">
         <v>3.65912938117981</v>
       </c>
-      <c r="AH27" t="s">
-        <v>121</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>301421</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>3.84</v>
@@ -3112,7 +3580,7 @@
         <v>122482.48</v>
       </c>
       <c r="J28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K28">
         <v>5</v>
@@ -3154,10 +3622,25 @@
         <v>0.51</v>
       </c>
       <c r="X28" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="Y28">
+        <v>7.88</v>
+      </c>
+      <c r="Z28">
+        <v>132.28</v>
+      </c>
+      <c r="AA28">
+        <v>10.05</v>
       </c>
       <c r="AC28" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>1</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3165,22 +3648,25 @@
       <c r="AG28">
         <v>4.686777114868164</v>
       </c>
-      <c r="AH28" t="s">
-        <v>121</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>301525</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>10</v>
@@ -3198,7 +3684,7 @@
         <v>69488.83</v>
       </c>
       <c r="J29" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K29">
         <v>4</v>
@@ -3240,10 +3726,25 @@
         <v>-0.51</v>
       </c>
       <c r="X29" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="Y29">
+        <v>-6.53</v>
+      </c>
+      <c r="Z29">
+        <v>117</v>
+      </c>
+      <c r="AA29">
+        <v>0.1</v>
       </c>
       <c r="AC29" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3251,22 +3752,25 @@
       <c r="AG29">
         <v>-0.1303055882453918</v>
       </c>
-      <c r="AH29" t="s">
-        <v>121</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>688123</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>3.64</v>
@@ -3284,7 +3788,7 @@
         <v>196184.78</v>
       </c>
       <c r="J30" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K30">
         <v>6</v>
@@ -3326,10 +3830,25 @@
         <v>0.52</v>
       </c>
       <c r="X30" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="Y30">
+        <v>10.47</v>
+      </c>
+      <c r="Z30">
+        <v>167.95</v>
+      </c>
+      <c r="AA30">
+        <v>14.07</v>
       </c>
       <c r="AC30" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>1</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3337,22 +3856,25 @@
       <c r="AG30">
         <v>-10.20261287689209</v>
       </c>
-      <c r="AH30" t="s">
-        <v>121</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>688141</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>2.87</v>
@@ -3370,7 +3892,7 @@
         <v>66143.86</v>
       </c>
       <c r="J31" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K31">
         <v>19</v>
@@ -3412,10 +3934,25 @@
         <v>-0.06</v>
       </c>
       <c r="X31" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="Y31">
+        <v>0.17</v>
+      </c>
+      <c r="Z31">
+        <v>59.99</v>
+      </c>
+      <c r="AA31">
+        <v>3.24</v>
       </c>
       <c r="AC31" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3423,22 +3960,25 @@
       <c r="AG31">
         <v>19.0394172668457</v>
       </c>
-      <c r="AH31" t="s">
-        <v>121</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>688147</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>3.69</v>
@@ -3456,7 +3996,7 @@
         <v>62020.5</v>
       </c>
       <c r="J32" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K32">
         <v>31</v>
@@ -3498,10 +4038,25 @@
         <v>0.86</v>
       </c>
       <c r="X32" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="Y32">
+        <v>4.25</v>
+      </c>
+      <c r="Z32">
+        <v>60.5</v>
+      </c>
+      <c r="AA32">
+        <v>11.03</v>
       </c>
       <c r="AC32" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="AD32">
+        <v>1</v>
+      </c>
+      <c r="AE32">
+        <v>1</v>
       </c>
       <c r="AF32">
         <v>1</v>
@@ -3509,22 +4064,25 @@
       <c r="AG32">
         <v>-16.32738304138184</v>
       </c>
-      <c r="AH32" t="s">
-        <v>121</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>688233</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>-0.44</v>
@@ -3542,7 +4100,7 @@
         <v>47972.89</v>
       </c>
       <c r="J33" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -3584,10 +4142,25 @@
         <v>-0.14</v>
       </c>
       <c r="X33" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="Y33">
+        <v>12.32</v>
+      </c>
+      <c r="Z33">
+        <v>52.86</v>
+      </c>
+      <c r="AA33">
+        <v>17.21</v>
       </c>
       <c r="AC33" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>1</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3595,22 +4168,25 @@
       <c r="AG33">
         <v>4.580995082855225</v>
       </c>
-      <c r="AH33" t="s">
-        <v>121</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>688249</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>2.55</v>
@@ -3628,7 +4204,7 @@
         <v>333773.31</v>
       </c>
       <c r="J34" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K34">
         <v>2</v>
@@ -3670,10 +4246,25 @@
         <v>-0.64</v>
       </c>
       <c r="X34" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="Y34">
+        <v>3.5</v>
+      </c>
+      <c r="Z34">
+        <v>35.56</v>
+      </c>
+      <c r="AA34">
+        <v>5.39</v>
       </c>
       <c r="AC34" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3681,22 +4272,25 @@
       <c r="AG34">
         <v>16.43942070007324</v>
       </c>
-      <c r="AH34" t="s">
-        <v>121</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>688332</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>9.19</v>
@@ -3714,7 +4308,7 @@
         <v>134040.01</v>
       </c>
       <c r="J35" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K35">
         <v>5</v>
@@ -3756,10 +4350,25 @@
         <v>0.43</v>
       </c>
       <c r="X35" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="Y35">
+        <v>6.38</v>
+      </c>
+      <c r="Z35">
+        <v>168.88</v>
+      </c>
+      <c r="AA35">
+        <v>8.85</v>
       </c>
       <c r="AC35" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>1</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3767,22 +4376,25 @@
       <c r="AG35">
         <v>2.527984619140625</v>
       </c>
-      <c r="AH35" t="s">
-        <v>121</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>688347</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>-1.18</v>
@@ -3800,7 +4412,7 @@
         <v>223632.51</v>
       </c>
       <c r="J36" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K36">
         <v>13</v>
@@ -3842,10 +4454,25 @@
         <v>-0.39</v>
       </c>
       <c r="X36" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="Y36">
+        <v>15.72</v>
+      </c>
+      <c r="Z36">
+        <v>117.89</v>
+      </c>
+      <c r="AA36">
+        <v>24.57</v>
       </c>
       <c r="AC36" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>1</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -3853,22 +4480,25 @@
       <c r="AG36">
         <v>0.06342029571533203</v>
       </c>
-      <c r="AH36" t="s">
-        <v>121</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>688388</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>6.04</v>
@@ -3886,7 +4516,7 @@
         <v>108277.88</v>
       </c>
       <c r="J37" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K37">
         <v>20</v>
@@ -3928,10 +4558,25 @@
         <v>-0.08</v>
       </c>
       <c r="X37" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="Y37">
+        <v>3.39</v>
+      </c>
+      <c r="Z37">
+        <v>38.5</v>
+      </c>
+      <c r="AA37">
+        <v>6.97</v>
       </c>
       <c r="AC37" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -3939,22 +4584,25 @@
       <c r="AG37">
         <v>13.49120903015137</v>
       </c>
-      <c r="AH37" t="s">
-        <v>121</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>688403</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>-0.42</v>
@@ -3972,7 +4620,7 @@
         <v>96310.55</v>
       </c>
       <c r="J38" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K38">
         <v>4</v>
@@ -4014,10 +4662,25 @@
         <v>0.18</v>
       </c>
       <c r="X38" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="Y38">
+        <v>2.54</v>
+      </c>
+      <c r="Z38">
+        <v>19.86</v>
+      </c>
+      <c r="AA38">
+        <v>5.41</v>
       </c>
       <c r="AC38" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
       </c>
       <c r="AF38">
         <v>1</v>
@@ -4025,22 +4688,25 @@
       <c r="AG38">
         <v>4.406074047088623</v>
       </c>
-      <c r="AH38" t="s">
-        <v>122</v>
+      <c r="AH38">
+        <v>1</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>688409</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>1.96</v>
@@ -4058,7 +4724,7 @@
         <v>39705.66</v>
       </c>
       <c r="J39" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K39">
         <v>3</v>
@@ -4100,10 +4766,25 @@
         <v>-0.13</v>
       </c>
       <c r="X39" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="Y39">
+        <v>2.1</v>
+      </c>
+      <c r="Z39">
+        <v>76.89</v>
+      </c>
+      <c r="AA39">
+        <v>5.06</v>
       </c>
       <c r="AC39" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4111,22 +4792,25 @@
       <c r="AG39">
         <v>79.29935455322266</v>
       </c>
-      <c r="AH39" t="s">
-        <v>121</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>688411</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>15.3</v>
@@ -4144,7 +4828,7 @@
         <v>133386.59</v>
       </c>
       <c r="J40" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K40">
         <v>20</v>
@@ -4186,10 +4870,25 @@
         <v>0.23</v>
       </c>
       <c r="X40" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="Y40">
+        <v>5.46</v>
+      </c>
+      <c r="Z40">
+        <v>345.55</v>
+      </c>
+      <c r="AA40">
+        <v>12.24</v>
       </c>
       <c r="AC40" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>1</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4197,22 +4896,25 @@
       <c r="AG40">
         <v>-1.84332263469696</v>
       </c>
-      <c r="AH40" t="s">
-        <v>121</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>688498</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>10.34</v>
@@ -4230,7 +4932,7 @@
         <v>165226.89</v>
       </c>
       <c r="J41" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K41">
         <v>14</v>
@@ -4272,10 +4974,25 @@
         <v>0.43</v>
       </c>
       <c r="X41" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="Y41">
+        <v>4.58</v>
+      </c>
+      <c r="Z41">
+        <v>440</v>
+      </c>
+      <c r="AA41">
+        <v>8.949999999999999</v>
       </c>
       <c r="AC41" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>1</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4283,22 +5000,25 @@
       <c r="AG41">
         <v>-6.65348482131958</v>
       </c>
-      <c r="AH41" t="s">
-        <v>121</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>688503</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>0.71</v>
@@ -4316,7 +5036,7 @@
         <v>190386.15</v>
       </c>
       <c r="J42" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K42">
         <v>4</v>
@@ -4358,10 +5078,25 @@
         <v>-0.8100000000000001</v>
       </c>
       <c r="X42" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="Y42">
+        <v>-1.28</v>
+      </c>
+      <c r="Z42">
+        <v>84.81</v>
+      </c>
+      <c r="AA42">
+        <v>5.03</v>
       </c>
       <c r="AC42" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4369,22 +5104,25 @@
       <c r="AG42">
         <v>6.222748756408691</v>
       </c>
-      <c r="AH42" t="s">
-        <v>121</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>688525</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>5.64</v>
@@ -4402,7 +5140,7 @@
         <v>300693.79</v>
       </c>
       <c r="J43" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K43">
         <v>6</v>
@@ -4444,10 +5182,25 @@
         <v>-0.21</v>
       </c>
       <c r="X43" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="Y43">
+        <v>9.34</v>
+      </c>
+      <c r="Z43">
+        <v>109.5</v>
+      </c>
+      <c r="AA43">
+        <v>15.02</v>
       </c>
       <c r="AC43" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>1</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4455,22 +5208,25 @@
       <c r="AG43">
         <v>14.37416172027588</v>
       </c>
-      <c r="AH43" t="s">
-        <v>121</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>688545</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>0.08</v>
@@ -4488,7 +5244,7 @@
         <v>45990.04</v>
       </c>
       <c r="J44" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K44">
         <v>4</v>
@@ -4530,10 +5286,25 @@
         <v>-0.5</v>
       </c>
       <c r="X44" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="Y44">
+        <v>9.5</v>
+      </c>
+      <c r="Z44">
+        <v>43.09</v>
+      </c>
+      <c r="AA44">
+        <v>13.45</v>
       </c>
       <c r="AC44" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>1</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4541,22 +5312,25 @@
       <c r="AG44">
         <v>2.991767406463623</v>
       </c>
-      <c r="AH44" t="s">
-        <v>121</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>688627</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>9.24</v>
@@ -4574,7 +5348,7 @@
         <v>118338.48</v>
       </c>
       <c r="J45" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K45">
         <v>12</v>
@@ -4616,10 +5390,25 @@
         <v>-0.45</v>
       </c>
       <c r="X45" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="Y45">
+        <v>-3.21</v>
+      </c>
+      <c r="Z45">
+        <v>193.99</v>
+      </c>
+      <c r="AA45">
+        <v>2.64</v>
       </c>
       <c r="AC45" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -4627,22 +5416,25 @@
       <c r="AG45">
         <v>-7.790409564971924</v>
       </c>
-      <c r="AH45" t="s">
-        <v>121</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>688652</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>5.15</v>
@@ -4660,7 +5452,7 @@
         <v>64789.41</v>
       </c>
       <c r="J46" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K46">
         <v>4</v>
@@ -4702,10 +5494,25 @@
         <v>-0.01</v>
       </c>
       <c r="X46" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="Y46">
+        <v>-6.21</v>
+      </c>
+      <c r="Z46">
+        <v>117.33</v>
+      </c>
+      <c r="AA46">
+        <v>13.34</v>
       </c>
       <c r="AC46" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>1</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -4713,22 +5520,25 @@
       <c r="AG46">
         <v>7.972504138946533</v>
       </c>
-      <c r="AH46" t="s">
-        <v>121</v>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>688981</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>1.47</v>
@@ -4746,7 +5556,7 @@
         <v>955957.25</v>
       </c>
       <c r="J47" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K47">
         <v>13</v>
@@ -4788,10 +5598,25 @@
         <v>-0.25</v>
       </c>
       <c r="X47" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="Y47">
+        <v>3.02</v>
+      </c>
+      <c r="Z47">
+        <v>142</v>
+      </c>
+      <c r="AA47">
+        <v>5.8</v>
       </c>
       <c r="AC47" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -4799,8 +5624,11 @@
       <c r="AG47">
         <v>2.625211954116821</v>
       </c>
-      <c r="AH47" t="s">
-        <v>121</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
